--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>78.1140198259651</v>
+        <v>1.4763</v>
       </c>
       <c r="N2">
-        <v>78.1140198259651</v>
+        <v>4.428900000000001</v>
       </c>
       <c r="O2">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="P2">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="Q2">
-        <v>186.3856050203713</v>
+        <v>13.4462432489</v>
       </c>
       <c r="R2">
-        <v>186.3856050203713</v>
+        <v>121.0161892401</v>
       </c>
       <c r="S2">
-        <v>0.0002897254566053083</v>
+        <v>2.044177037217201E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002897254566053083</v>
+        <v>2.044177037217201E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.671704874781</v>
+        <v>78.17189533333334</v>
       </c>
       <c r="N3">
-        <v>31.671704874781</v>
+        <v>234.515686</v>
       </c>
       <c r="O3">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="P3">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="Q3">
-        <v>75.57093961192471</v>
+        <v>711.995068671375</v>
       </c>
       <c r="R3">
-        <v>75.57093961192471</v>
+        <v>6407.955618042374</v>
       </c>
       <c r="S3">
-        <v>0.0001174705792475983</v>
+        <v>0.001082416808210706</v>
       </c>
       <c r="T3">
-        <v>0.0001174705792475983</v>
+        <v>0.001082416808210706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5768.50180271428</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>5768.50180271428</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>78.1140198259651</v>
+        <v>0.1536526666666667</v>
       </c>
       <c r="N4">
-        <v>78.1140198259651</v>
+        <v>0.460958</v>
       </c>
       <c r="O4">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="P4">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="Q4">
-        <v>450600.8641833387</v>
+        <v>1.399479192469111</v>
       </c>
       <c r="R4">
-        <v>450600.8641833387</v>
+        <v>12.595312732222</v>
       </c>
       <c r="S4">
-        <v>0.7004325312998052</v>
+        <v>2.127570635420909E-06</v>
       </c>
       <c r="T4">
-        <v>0.7004325312998052</v>
+        <v>2.127570635420909E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5768.50180271428</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>5768.50180271428</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.671704874781</v>
+        <v>32.14343433333334</v>
       </c>
       <c r="N5">
-        <v>31.671704874781</v>
+        <v>96.43030300000001</v>
       </c>
       <c r="O5">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="P5">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="Q5">
-        <v>182698.2866652088</v>
+        <v>292.7646392339253</v>
       </c>
       <c r="R5">
-        <v>182698.2866652088</v>
+        <v>2634.881753105327</v>
       </c>
       <c r="S5">
-        <v>0.2839937371735325</v>
+        <v>0.0004450780353688207</v>
       </c>
       <c r="T5">
-        <v>0.2839937371735325</v>
+        <v>0.0004450780353688207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>78.1140198259651</v>
+        <v>1.4763</v>
       </c>
       <c r="N6">
-        <v>78.1140198259651</v>
+        <v>4.428900000000001</v>
       </c>
       <c r="O6">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="P6">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="Q6">
-        <v>77.41016678655737</v>
+        <v>8521.0169002126</v>
       </c>
       <c r="R6">
-        <v>77.41016678655737</v>
+        <v>76689.15210191341</v>
       </c>
       <c r="S6">
-        <v>0.0001203295496756691</v>
+        <v>0.01295415140030227</v>
       </c>
       <c r="T6">
-        <v>0.0001203295496756691</v>
+        <v>0.01295415140030228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.671704874781</v>
+        <v>78.17189533333334</v>
       </c>
       <c r="N7">
-        <v>31.671704874781</v>
+        <v>234.515686</v>
       </c>
       <c r="O7">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="P7">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="Q7">
-        <v>31.38632427615087</v>
+        <v>451198.293881314</v>
       </c>
       <c r="R7">
-        <v>31.38632427615087</v>
+        <v>4060784.644931826</v>
       </c>
       <c r="S7">
-        <v>4.878819440522893E-05</v>
+        <v>0.6859382018536766</v>
       </c>
       <c r="T7">
-        <v>4.878819440522893E-05</v>
+        <v>0.6859382018536767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>87.8812706229666</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>87.8812706229666</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>78.1140198259651</v>
+        <v>0.1536526666666667</v>
       </c>
       <c r="N8">
-        <v>78.1140198259651</v>
+        <v>0.460958</v>
       </c>
       <c r="O8">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="P8">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="Q8">
-        <v>6864.759315773417</v>
+        <v>886.8637603667274</v>
       </c>
       <c r="R8">
-        <v>6864.759315773417</v>
+        <v>7981.773843300548</v>
       </c>
       <c r="S8">
-        <v>0.01067086445345722</v>
+        <v>0.001348262485307985</v>
       </c>
       <c r="T8">
-        <v>0.01067086445345722</v>
+        <v>0.001348262485307985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>87.8812706229666</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>87.8812706229666</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.01499741774672851</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.671704874781</v>
+        <v>32.14343433333334</v>
       </c>
       <c r="N9">
-        <v>31.671704874781</v>
+        <v>96.43030300000001</v>
       </c>
       <c r="O9">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="P9">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="Q9">
-        <v>2783.349667191359</v>
+        <v>185527.8379632915</v>
       </c>
       <c r="R9">
-        <v>2783.349667191359</v>
+        <v>1669750.541669624</v>
       </c>
       <c r="S9">
-        <v>0.004326553293271292</v>
+        <v>0.2820503386030442</v>
       </c>
       <c r="T9">
-        <v>0.004326553293271292</v>
+        <v>0.2820503386030443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.816089</v>
+      </c>
+      <c r="I10">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J10">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.4763</v>
+      </c>
+      <c r="N10">
+        <v>4.428900000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="P10">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="Q10">
+        <v>1.8778973969</v>
+      </c>
+      <c r="R10">
+        <v>16.9010765721</v>
+      </c>
+      <c r="S10">
+        <v>2.854890147333141E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.854890147333141E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.816089</v>
+      </c>
+      <c r="I11">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J11">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>78.17189533333334</v>
+      </c>
+      <c r="N11">
+        <v>234.515686</v>
+      </c>
+      <c r="O11">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="P11">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="Q11">
+        <v>99.43696996356155</v>
+      </c>
+      <c r="R11">
+        <v>894.9327296720541</v>
+      </c>
+      <c r="S11">
+        <v>0.0001511699341498956</v>
+      </c>
+      <c r="T11">
+        <v>0.0001511699341498956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.816089</v>
+      </c>
+      <c r="I12">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J12">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1536526666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.460958</v>
+      </c>
+      <c r="O12">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="P12">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="Q12">
+        <v>0.1954507503624444</v>
+      </c>
+      <c r="R12">
+        <v>1.759056753262</v>
+      </c>
+      <c r="S12">
+        <v>2.971357340500778E-07</v>
+      </c>
+      <c r="T12">
+        <v>2.971357340500778E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.272029666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.816089</v>
+      </c>
+      <c r="I13">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="J13">
+        <v>0.0002164813950916887</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.14343433333334</v>
+      </c>
+      <c r="N13">
+        <v>96.43030300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="P13">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="Q13">
+        <v>40.88740206055189</v>
+      </c>
+      <c r="R13">
+        <v>367.986618544967</v>
+      </c>
+      <c r="S13">
+        <v>6.21594350604099E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.21594350604099E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H14">
+        <v>281.031075</v>
+      </c>
+      <c r="I14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.4763</v>
+      </c>
+      <c r="N14">
+        <v>4.428900000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="P14">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="Q14">
+        <v>138.2953920075</v>
+      </c>
+      <c r="R14">
+        <v>1244.6585280675</v>
+      </c>
+      <c r="S14">
+        <v>0.0002102447943724429</v>
+      </c>
+      <c r="T14">
+        <v>0.0002102447943724429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H15">
+        <v>281.031075</v>
+      </c>
+      <c r="I15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>78.17189533333334</v>
+      </c>
+      <c r="N15">
+        <v>234.515686</v>
+      </c>
+      <c r="O15">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="P15">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="Q15">
+        <v>7322.910593438051</v>
+      </c>
+      <c r="R15">
+        <v>65906.19534094246</v>
+      </c>
+      <c r="S15">
+        <v>0.01113271967761349</v>
+      </c>
+      <c r="T15">
+        <v>0.01113271967761349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H16">
+        <v>281.031075</v>
+      </c>
+      <c r="I16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1536526666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.460958</v>
+      </c>
+      <c r="O16">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="P16">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="Q16">
+        <v>14.39372469665</v>
+      </c>
+      <c r="R16">
+        <v>129.54352226985</v>
+      </c>
+      <c r="S16">
+        <v>2.188218743352356E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.188218743352356E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H17">
+        <v>281.031075</v>
+      </c>
+      <c r="I17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.14343433333334</v>
+      </c>
+      <c r="N17">
+        <v>96.43030300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="P17">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="Q17">
+        <v>3011.101301629526</v>
+      </c>
+      <c r="R17">
+        <v>27099.91171466573</v>
+      </c>
+      <c r="S17">
+        <v>0.004577653418570606</v>
+      </c>
+      <c r="T17">
+        <v>0.004577653418570606</v>
       </c>
     </row>
   </sheetData>
